--- a/resource/viking/발로그 문서.xlsx
+++ b/resource/viking/발로그 문서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\vikingImage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\thelostviking\resource\viking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732C9B0-C48A-4108-8BA0-2576717B1E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E1813-3B11-413E-942B-4BE96DDA75BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{341484ED-854D-44C9-AF4C-E7C04DF1A971}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>기본 아이들(오른쪽)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>레이저에죽음 우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키업일때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜백가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ECABAF-6DDD-456A-A111-BFE0AA145EB0}">
-  <dimension ref="B3:M49"/>
+  <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,7 +603,7 @@
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -626,12 +638,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -653,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -705,7 +717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -734,7 +746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,7 +775,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -792,7 +807,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,7 +839,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -838,7 +859,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -855,7 +879,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -872,7 +899,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -889,7 +919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -912,7 +942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -941,7 +971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -970,7 +1000,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1011,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -992,7 +1022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +1039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +1070,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1084,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1095,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1106,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +1117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
